--- a/biology/Histoire de la zoologie et de la botanique/Liste_de_femmes_paléontologues/Liste_de_femmes_paléontologues.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Liste_de_femmes_paléontologues/Liste_de_femmes_paléontologues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici une liste de femmes paléontologues ayant contribué et contribuant de manière significative au développement de la pratique[note 1]. Elles sont classées par ordre alphabétique.
 Sommaire :
@@ -520,7 +532,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -538,7 +550,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Mary Anning (1799-1847) : 1re femme paléontologue, découvre l'ichtyosaure.
  Esther Applin (1895-1972) : micropaléontologue, géologue pétrolière.
@@ -552,7 +566,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -570,7 +584,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Dorothea Minola Alice Bate (1878-1951) : paléontologue et archéozoologue spécialiste des paléoenvironnements, des mammifères et des oiseaux.
  Elizaveta Ivanovna Belajeva (1894-1983) : spécialiste des mammifères cénozoïques (proboscidiens, artiodactyles, périssodactyles).
@@ -584,7 +600,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -602,7 +618,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Nina Evgen'evna Chernysheva (1912-2003) : spécialiste du Cambrien (trilobites et foraminifères).
  Lucy May Cranwell (en) (1907-2000) : paléobotaniste, spécialiste des microfossiles et du pollen.
@@ -617,7 +635,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,7 +653,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Marthe Deflandre-Rigaud (1902-1987) : spécialiste des échinodermes.
  Anna Fedorovna Dibner (1920-1998) : paléobotaniste (pollen) et spécialiste de la géomorphologie.
@@ -650,7 +670,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -668,7 +688,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Tilly Edinger (1897-1967) : spécialiste des crânes et des notosaures.
  Gertrude Lilian Elles (en) (1872-1960) : spécialiste des graptolites paléozoïques.</t>
@@ -681,7 +703,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -699,7 +721,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve"> Ann-Marie Forsten (1939-2002) : spécialiste des Hipparions (chevaux).
  Madeleine Alberta Fritz(1896-1990) : spécialistes des bryozoaires ordoviciens.</t>
@@ -712,7 +736,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -730,11 +754,13 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve"> Julia Anna Gardner (1882-1960) : spécialiste des mollusques crétacés et du Cénozoïque.
  Zulma Brandoni de Gasparini (1944) : spécialiste des reptiles du Mésozoïque et du Cénozoïque en Amérique du Sud.
- Suzette Gillet (1893-1988), première femme en France à accéder à un poste de professeur d’université en géologie (Université de Strasbourg)[1].
+ Suzette Gillet (1893-1988), première femme en France à accéder à un poste de professeur d’université en géologie (Université de Strasbourg).
  Winifred Goldring (1888-1971) : spécialiste des crinoïdes dévonien, paléobotaniste et vulgarisatrice scientifique.
  Jane Gray (1929-2000) : palynologue.</t>
         </is>
@@ -746,7 +772,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -764,7 +790,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sue Hendrickson (1949-) : découvre le Tyranosaurus rex.
  Mary Higby Schweitzer : spécialiste du Tyranosaurus rex.
@@ -780,7 +808,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -798,7 +826,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve"> Elena Alekseevna Ivanova (1901-2005) : cartographe et paléontologue spécialiste des brachiopodes carbonifères et plus anciens.</t>
         </is>
@@ -810,7 +840,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -829,6 +859,8 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -836,7 +868,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -854,7 +886,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve"> Josephine Kablick (1787-1863) : paléobotaniste.
  Myra Keen (en) (1905-1986) : micropaléontologue et spécialiste de mollusques.
@@ -869,7 +903,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -887,7 +921,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve"> Yolande Le Calvez (1910-2002) : spécialiste des foraminifères.
  Dorothée Le Maître (1896-1990) : spécialiste des stromatopores et des faunes dévoniennes.
@@ -904,7 +940,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -922,7 +958,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Francine Martin (1937-1994) : micropaléontologue, spécialiste des graptolites.
  Carlotta Joaquina Maury (1874-1938) : spécialiste des mollusques.
@@ -937,7 +975,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -955,7 +993,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve"> Maria Feodorovna Neuburg (1894-1962) : paléobotaniste.
  Elizabeth Nicholls (1946-2004) : spécialiste des reptiles marins.</t>
@@ -968,7 +1008,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -987,6 +1027,8 @@
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -994,7 +1036,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1012,7 +1054,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve"> Marie Vasil'evna Pavlova (1854-1938) : spécialiste des mammifères en particulier des ongulés.
  Elizabeth Philpot (1780-1857) : spécialiste des poissons fossiles.</t>
@@ -1025,7 +1069,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1044,6 +1088,8 @@
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1051,7 +1097,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1069,7 +1115,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve"> Eleanor Mary Reid (1860-1953) : mathématicienne, géologue et paléobotaniste.
  Lada N. Repina (1925-1993) : spécialiste des trilobites cambriens.
@@ -1083,7 +1131,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1101,7 +1149,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve"> Alice Schnorf-Steiner (1904-1993) : spécialiste des stromatopores.
  Brigitte Senut (1954-) : paléoanthropologue.
@@ -1119,7 +1169,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1137,7 +1187,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve"> Helen Tappan (1840-1901) spécialiste des foraminifères.
  Geneviève Termier (1917-2005) : spécialiste des faunes paléozoïques.</t>
@@ -1150,7 +1202,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1169,6 +1221,8 @@
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1176,7 +1230,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1194,7 +1248,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve"> Akta Vodickova-Kneblova (1919-1999) : paléobotaniste.
  Tamara F. Vozzhennikova (1914-2000) : paléobotaniste.</t>
@@ -1207,7 +1263,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1225,7 +1281,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve"> Mary Julia Wade (1928-2005) : spécialiste des foraminifères.
  Alice Wilson (1881-1964) : spécialiste des trilobites.
@@ -1240,7 +1298,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1259,6 +1317,8 @@
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1266,7 +1326,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1285,6 +1345,8 @@
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1292,7 +1354,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liste_de_femmes_pal%C3%A9ontologues</t>
+          <t>Liste_de_femmes_paléontologues</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1310,7 +1372,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
